--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="506" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="506" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="3" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="Iteration 6" sheetId="9" r:id="rId6"/>
     <sheet name="Iteration 7" sheetId="10" r:id="rId7"/>
     <sheet name="Iteration 8" sheetId="13" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
-    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
+    <sheet name="Iteration 9" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
+    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId11"/>
+    <sheet name="Overview" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="209">
   <si>
     <t>S/N</t>
   </si>
@@ -609,6 +610,56 @@
   </si>
   <si>
     <t>https://hsemr-wpinapp.rhcloud.com/hsemr/viewPatientInformation.jsp</t>
+  </si>
+  <si>
+    <t>Iteration 7 (12 Janurary 2015-  24 Janurary 2015)</t>
+  </si>
+  <si>
+    <t>Iteration 7 (12 Janurary 2015- 24Janurary 2015)</t>
+  </si>
+  <si>
+    <t>Iteration 9 ( 9 Janurary 2015- 21 Janurary 2015)</t>
+  </si>
+  <si>
+    <t>All Case name, case description and admission information shows error when either one of the fields are empty. 
+If you empty the case description, all 3 fields will show that there is an error</t>
+  </si>
+  <si>
+    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/editState.jsp</t>
+  </si>
+  <si>
+    <t>When creating a new state, healthcare provider's order field is set to be requied. However, it should be able to be left blank.</t>
+  </si>
+  <si>
+    <t>Edit state</t>
+  </si>
+  <si>
+    <t>State description can be left empty when user clicks on the save and proceed button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Case &amp; Edit Case </t>
+  </si>
+  <si>
+    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/createScenario.jsp
+http://hsemr-wpinapp.rhcloud.com/hsemr/editScenario.jsp</t>
+  </si>
+  <si>
+    <t>Edit medication</t>
+  </si>
+  <si>
+    <t>under the medicine created, state information is shown instead of the medications created</t>
+  </si>
+  <si>
+    <t>Create State &amp; Edit  State</t>
+  </si>
+  <si>
+    <t>User must select discontinue state. However, the medicine might not need to be discontinued</t>
+  </si>
+  <si>
+    <t>Deactivate case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null pointer when student is already logged in. and lecturer deactivates state. </t>
   </si>
 </sst>
 </file>
@@ -966,7 +1017,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1291,6 +1342,93 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1452,7 +1590,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1557,7 +1694,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1678,7 +1814,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-SG"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1781,8 +1917,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1533781280"/>
-        <c:axId val="1533782912"/>
+        <c:axId val="171093032"/>
+        <c:axId val="176475160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1865,7 +2001,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1929,11 +2064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1533781280"/>
-        <c:axId val="1533782912"/>
+        <c:axId val="171093032"/>
+        <c:axId val="176475160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1533781280"/>
+        <c:axId val="171093032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +2100,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2012,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533782912"/>
+        <c:crossAx val="176475160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,7 +2154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1533782912"/>
+        <c:axId val="176475160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533781280"/>
+        <c:crossAx val="171093032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2071,7 +2205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2227,7 +2360,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-SG"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2330,8 +2463,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1533784000"/>
-        <c:axId val="1533776928"/>
+        <c:axId val="176475944"/>
+        <c:axId val="176476336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2414,7 +2547,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2478,11 +2610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1533784000"/>
-        <c:axId val="1533776928"/>
+        <c:axId val="176475944"/>
+        <c:axId val="176476336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1533784000"/>
+        <c:axId val="176475944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2646,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2561,7 +2692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533776928"/>
+        <c:crossAx val="176476336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1533776928"/>
+        <c:axId val="176476336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533784000"/>
+        <c:crossAx val="176475944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,7 +2751,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3758,28 +3888,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3788,30 +3918,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -4221,9 +4351,201 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="F11:O15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="6:15" ht="102" x14ac:dyDescent="0.25">
+      <c r="F11" s="62">
+        <v>1</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="64">
+        <v>41929.583333333336</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="66"/>
+      <c r="G12" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="68">
+        <v>2</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="70">
+        <v>41933.475694444445</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="72"/>
+      <c r="G13" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="74">
+        <v>3</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="76">
+        <v>41939.449386574073</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="F14" s="66"/>
+      <c r="G14" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="68">
+        <v>4</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="70">
+        <v>41941.431875000002</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="72"/>
+      <c r="G15" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="74">
+        <v>5</v>
+      </c>
+      <c r="K15" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="76">
+        <v>41948.662094907406</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N11" r:id="rId1" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P02%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="O11" r:id="rId2" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="G12" r:id="rId3" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="H12" r:id="rId4" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="I12" r:id="rId5" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+2&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="N12" r:id="rId6" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P03%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="O12" r:id="rId7" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="G13" r:id="rId8" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="H13" r:id="rId9" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="I13" r:id="rId10" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+3&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="N13" r:id="rId11" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="O13" r:id="rId12" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="G14" r:id="rId13" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="H14" r:id="rId14" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="I14" r:id="rId15" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+4&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="N14" r:id="rId16" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="O14" r:id="rId17" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="G15" r:id="rId18" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="H15" r:id="rId19" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="I15" r:id="rId20" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+5&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="N15" r:id="rId21" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="O15" r:id="rId22" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC4%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4367,11 +4689,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -4558,28 +4880,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -4588,30 +4910,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4908,28 +5230,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4938,30 +5260,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -5259,28 +5581,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -5289,30 +5611,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="151"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -5604,28 +5926,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -5634,30 +5956,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="151"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -6050,26 +6372,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -6078,30 +6400,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -6438,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6462,26 +6784,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="B2" s="157" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -6490,30 +6812,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="B6" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="78" t="s">
@@ -6964,7 +7286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -6988,26 +7310,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -7016,30 +7338,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="110" t="s">
@@ -7426,192 +7748,416 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="F11:O15"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="43"/>
+    <col min="2" max="2" width="4.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="31" style="43" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="14" style="43" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="43" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="11" spans="6:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="F11" s="62">
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="161"/>
+      <c r="D4" s="44">
+        <f>SUM(G8:G116)</f>
+        <v>26</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="154"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="156"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="157" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="159"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="64">
-        <v>41929.583333333336</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="F12" s="66"/>
-      <c r="G12" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="68">
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="70">
-        <v>41933.475694444445</v>
-      </c>
-      <c r="N12" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="72"/>
-      <c r="G13" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="74">
+      <c r="G7" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="76">
-        <v>41939.449386574073</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="F14" s="66"/>
-      <c r="G14" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="68">
+    </row>
+    <row r="8" spans="1:17" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G8" s="118">
+        <v>5</v>
+      </c>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:17" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46"/>
+      <c r="B9" s="83">
+        <v>2</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G9" s="118">
+        <v>1</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46"/>
+      <c r="B10" s="83">
+        <v>3</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G10" s="118">
+        <v>5</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46"/>
+      <c r="B11" s="30">
         <v>4</v>
       </c>
-      <c r="K14" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="70">
-        <v>41941.431875000002</v>
-      </c>
-      <c r="N14" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="74">
+      <c r="C11" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G11" s="119">
         <v>5</v>
       </c>
-      <c r="K15" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="76">
-        <v>41948.662094907406</v>
-      </c>
-      <c r="N15" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="65" t="s">
-        <v>146</v>
-      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46"/>
+      <c r="B12" s="85">
+        <v>5</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G12" s="119">
+        <v>5</v>
+      </c>
+      <c r="H12" s="120"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="77"/>
+      <c r="B13" s="87">
+        <v>6</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="116">
+        <v>42050</v>
+      </c>
+      <c r="G13" s="133">
+        <v>5</v>
+      </c>
+      <c r="H13" s="134"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+    </row>
+    <row r="14" spans="1:17" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="80"/>
+      <c r="B14" s="89">
+        <v>7</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+    </row>
+    <row r="15" spans="1:17" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
+      <c r="B15" s="92">
+        <v>8</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G16,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G18,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H19" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G19,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H20" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G20,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H21" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G21,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H24" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B6:L6"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P02%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O11" r:id="rId2" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G12" r:id="rId3" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H12" r:id="rId4" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I12" r:id="rId5" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+2&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N12" r:id="rId6" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P03%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O12" r:id="rId7" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G13" r:id="rId8" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H13" r:id="rId9" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I13" r:id="rId10" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+3&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N13" r:id="rId11" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O13" r:id="rId12" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G14" r:id="rId13" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H14" r:id="rId14" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I14" r:id="rId15" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+4&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N14" r:id="rId16" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O14" r:id="rId17" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G15" r:id="rId18" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H15" r:id="rId19" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I15" r:id="rId20" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+5&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N15" r:id="rId21" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O15" r:id="rId22" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC4%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://hsemr-wpinapp.rhcloud.com/hsemr/createScenario.jsphttp://hsemr-wpinapp.rhcloud.com/hsemr/editScenario.jsp"/>
+    <hyperlink ref="D9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="506" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="3" r:id="rId1"/>
@@ -16,16 +16,15 @@
     <sheet name="Iteration 7" sheetId="10" r:id="rId7"/>
     <sheet name="Iteration 8" sheetId="13" r:id="rId8"/>
     <sheet name="Iteration 9" sheetId="14" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
-    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId11"/>
-    <sheet name="Overview" sheetId="12" r:id="rId12"/>
+    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId10"/>
+    <sheet name="Overview" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="183">
   <si>
     <t>S/N</t>
   </si>
@@ -403,9 +402,6 @@
     <t>Error message should be displayed when no case is activated</t>
   </si>
   <si>
-    <t>unsolved</t>
-  </si>
-  <si>
     <t>Case Setup - State V2</t>
   </si>
   <si>
@@ -418,66 +414,6 @@
     <t>No error message for gender selection</t>
   </si>
   <si>
-    <t>taken down hr,bp,intake, output, administer medicine</t>
-  </si>
-  <si>
-    <t>xuanqi, linwei, qiwei, linxuan, qiping</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t> Edit</t>
-  </si>
-  <si>
-    <t> Copy</t>
-  </si>
-  <si>
-    <t> Delete</t>
-  </si>
-  <si>
-    <t>testestest</t>
-  </si>
-  <si>
-    <t>tingting, shiqi, weiyi, gladys, jocelyn, grace</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>Administered panadol at 5.34pm</t>
-  </si>
-  <si>
-    <t>glad, sq, wy, grace, joce</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>Chemistry report despatched. Blood pressure, spo2, respiration rate, heart rate normal.</t>
-  </si>
-  <si>
-    <t>a, b, c, d</t>
-  </si>
-  <si>
-    <t>Hi hi 5 nov</t>
-  </si>
-  <si>
-    <t>grace Test</t>
-  </si>
-  <si>
-    <t>SC4</t>
-  </si>
-  <si>
-    <t>Activate Case</t>
-  </si>
-  <si>
-    <t>Null pointer in student portal when admin activate case</t>
-  </si>
-  <si>
     <t>Added required for case name</t>
   </si>
   <si>
@@ -500,9 +436,6 @@
   </si>
   <si>
     <t>Checked for null scenario and added error message</t>
-  </si>
-  <si>
-    <t>Can't find error</t>
   </si>
   <si>
     <t>Added new method in MedicationHistoryDAO and edited ProcessResetScenario</t>
@@ -621,52 +554,38 @@
     <t>Iteration 9 ( 9 Janurary 2015- 21 Janurary 2015)</t>
   </si>
   <si>
-    <t>All Case name, case description and admission information shows error when either one of the fields are empty. 
-If you empty the case description, all 3 fields will show that there is an error</t>
-  </si>
-  <si>
-    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/editState.jsp</t>
-  </si>
-  <si>
-    <t>When creating a new state, healthcare provider's order field is set to be requied. However, it should be able to be left blank.</t>
-  </si>
-  <si>
-    <t>Edit state</t>
-  </si>
-  <si>
-    <t>State description can be left empty when user clicks on the save and proceed button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Case &amp; Edit Case </t>
-  </si>
-  <si>
-    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/createScenario.jsp
-http://hsemr-wpinapp.rhcloud.com/hsemr/editScenario.jsp</t>
-  </si>
-  <si>
-    <t>Edit medication</t>
-  </si>
-  <si>
-    <t>under the medicine created, state information is shown instead of the medications created</t>
-  </si>
-  <si>
-    <t>Create State &amp; Edit  State</t>
-  </si>
-  <si>
-    <t>User must select discontinue state. However, the medicine might not need to be discontinued</t>
-  </si>
-  <si>
-    <t>Deactivate case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null pointer when student is already logged in. and lecturer deactivates state. </t>
+    <t>Multidisciplinary Notes should be aligned to the left</t>
+  </si>
+  <si>
+    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/viewSubmissionLecturer.jsp</t>
+  </si>
+  <si>
+    <t>Topbar in the lecturer's portal is not shown when page is being scrolled down</t>
+  </si>
+  <si>
+    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/viewScenarioAdmin.jsp</t>
+  </si>
+  <si>
+    <t>Admin Scenario Management</t>
+  </si>
+  <si>
+    <t>Lecturer View Submissions</t>
+  </si>
+  <si>
+    <t>Lecturer Scenario Management</t>
+  </si>
+  <si>
+    <t>http://hsemr-wpinapp.rhcloud.com/hsemr/viewScenarioLecturer.jsp</t>
+  </si>
+  <si>
+    <t>No submissions were exported</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,18 +645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -783,7 +690,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,26 +715,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFDFDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -977,15 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFBBBBBB"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1017,7 +897,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,54 +1070,6 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,70 +1079,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,19 +1154,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,9 +1178,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,9 +1190,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,7 +1199,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,13 +1211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,12 +1220,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,18 +1229,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1286,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1590,6 +1396,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1610,10 +1417,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$C$3:$C$10</c:f>
+              <c:f>Overview!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1625,6 +1432,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,6 +1504,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1714,10 +1525,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$3:$D$10</c:f>
+              <c:f>Overview!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1737,10 +1548,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,7 +1628,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SG"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1917,8 +1731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171093032"/>
-        <c:axId val="176475160"/>
+        <c:axId val="970820896"/>
+        <c:axId val="970824704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2001,6 +1815,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2021,10 +1836,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$10</c:f>
+              <c:f>Overview!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2044,10 +1859,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,11 +1882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171093032"/>
-        <c:axId val="176475160"/>
+        <c:axId val="970820896"/>
+        <c:axId val="970824704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171093032"/>
+        <c:axId val="970820896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,6 +1918,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2146,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176475160"/>
+        <c:crossAx val="970824704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2154,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176475160"/>
+        <c:axId val="970824704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171093032"/>
+        <c:crossAx val="970820896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2205,6 +2024,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2360,7 +2180,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SG"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2446,10 +2266,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$E$3:$E$10</c:f>
+              <c:f>Overview!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2463,8 +2283,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176475944"/>
-        <c:axId val="176476336"/>
+        <c:axId val="1112274032"/>
+        <c:axId val="1112283280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2547,6 +2367,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2567,10 +2388,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$10</c:f>
+              <c:f>Overview!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2590,10 +2411,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,11 +2434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176475944"/>
-        <c:axId val="176476336"/>
+        <c:axId val="1112274032"/>
+        <c:axId val="1112283280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176475944"/>
+        <c:axId val="1112274032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,6 +2470,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2692,7 +2517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176476336"/>
+        <c:crossAx val="1112283280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176476336"/>
+        <c:axId val="1112283280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176475944"/>
+        <c:crossAx val="1112274032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2751,6 +2576,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2818,695 +2644,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Edit">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3657600" y="3200400"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Copy">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4267200" y="3200400"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Delete">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4876800" y="3200400"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Edit">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3657600" y="4171950"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Copy">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4267200" y="4171950"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Delete">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4876800" y="4171950"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Edit">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3657600" y="4981575"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Copy">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4267200" y="4981575"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Delete">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4876800" y="4981575"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="Edit">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3657600" y="6600825"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Copy">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4267200" y="6600825"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Delete">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4876800" y="6600825"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3888,28 +3025,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3918,30 +3055,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -4351,202 +3488,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="F11:O15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" spans="6:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="F11" s="62">
-        <v>1</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="64">
-        <v>41929.583333333336</v>
-      </c>
-      <c r="N11" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="F12" s="66"/>
-      <c r="G12" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="68">
-        <v>2</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="70">
-        <v>41933.475694444445</v>
-      </c>
-      <c r="N12" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="72"/>
-      <c r="G13" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="74">
-        <v>3</v>
-      </c>
-      <c r="K13" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="76">
-        <v>41939.449386574073</v>
-      </c>
-      <c r="N13" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="F14" s="66"/>
-      <c r="G14" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="68">
-        <v>4</v>
-      </c>
-      <c r="K14" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="70">
-        <v>41941.431875000002</v>
-      </c>
-      <c r="N14" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="74">
-        <v>5</v>
-      </c>
-      <c r="K15" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="76">
-        <v>41948.662094907406</v>
-      </c>
-      <c r="N15" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P02%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O11" r:id="rId2" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G12" r:id="rId3" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H12" r:id="rId4" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+2&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I12" r:id="rId5" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+2&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N12" r:id="rId6" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P03%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O12" r:id="rId7" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G13" r:id="rId8" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H13" r:id="rId9" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+3&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I13" r:id="rId10" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+3&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N13" r:id="rId11" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O13" r:id="rId12" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G14" r:id="rId13" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H14" r:id="rId14" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+4&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I14" r:id="rId15" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+4&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N14" r:id="rId16" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O14" r:id="rId17" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC1%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="G15" r:id="rId18" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=update&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="H15" r:id="rId19" display="http://localhost:55/phpmyadmin/tbl_change.php?db=nphsemr&amp;table=note&amp;where_clause=%60note%60.%60noteID%60+%3D+5&amp;clause_is_unique=1&amp;sql_query=SELECT+%2A+FROM+%60note%60&amp;goto=sql.php&amp;default_action=insert&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="I15" r:id="rId20" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=note&amp;sql_query=DELETE+FROM+%60nphsemr%60.%60note%60+WHERE+%60note%60.%60noteID%60+%3D+5&amp;message_to_show=The+row+has+been+deleted&amp;goto=sql.php%3Fdb%3Dnphsemr%26table%3Dnote%26sql_query%3DSELECT%2B%252A%2BFROM%2B%2560note%2560%26message_to_show%3DThe%2Brow%2Bhas%2Bbeen%2Bdeleted%26goto%3Dtbl_sql.php%26token%3Dee2d4b54d1204adf52a94b92264ae27a&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="N15" r:id="rId21" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=practicalgroup&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60practicalgroup%60+WHERE+%60practicalGroupID%60+%3D+%27P01%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-    <hyperlink ref="O15" r:id="rId22" display="http://localhost:55/phpmyadmin/sql.php?db=nphsemr&amp;table=scenario&amp;pos=0&amp;sql_query=SELECT+%2A+FROM+%60nphsemr%60.%60scenario%60+WHERE+%60scenarioID%60+%3D+%27SC4%27&amp;token=ee2d4b54d1204adf52a94b92264ae27a"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,12 +3634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,146 +3649,157 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="97" t="s">
+    <row r="2" spans="2:6" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="97" t="s">
-        <v>161</v>
+      <c r="E2" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="95">
+      <c r="B3" s="78">
         <v>1</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="78">
         <v>9</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="78">
         <v>1</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95">
-        <f t="shared" ref="F3:F10" si="0">(C3*1)+(D3*5)+(E3*10)</f>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
+        <f t="shared" ref="F3:F11" si="0">(C3*1)+(D3*5)+(E3*10)</f>
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="95">
+      <c r="B4" s="78">
         <v>2</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="78">
         <v>2</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="95">
+      <c r="B5" s="78">
         <v>3</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78">
         <v>3</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95">
+      <c r="E5" s="78"/>
+      <c r="F5" s="78">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="95">
+      <c r="B6" s="78">
         <v>4</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78">
         <v>1</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="95">
+      <c r="B7" s="78">
         <v>5</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78">
         <v>6</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="95">
+      <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78">
         <v>4</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="95">
+      <c r="B9" s="78">
         <v>7</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="78">
         <v>5</v>
       </c>
-      <c r="D9" s="95">
-        <v>3</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95">
+      <c r="D9" s="78">
+        <v>2</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="95">
+      <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="78">
         <v>2</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="78">
         <v>6</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>10</v>
+      <c r="B11" s="78">
+        <v>9</v>
+      </c>
+      <c r="C11" s="78">
+        <v>3</v>
+      </c>
+      <c r="D11" s="118">
+        <v>1</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4880,28 +3836,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -4910,30 +3866,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -5230,28 +4186,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -5260,30 +4216,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="146"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -5581,28 +4537,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -5611,30 +4567,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -5926,28 +4882,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -5956,30 +4912,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -6372,26 +5328,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -6400,30 +5356,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -6758,10 +5714,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6784,61 +5740,61 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
+      <c r="B2" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="44">
-        <f>SUM(G8:G116)</f>
-        <v>20</v>
+        <f>SUM(G8:G115)</f>
+        <v>15</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="157" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
+      <c r="B6" s="132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6847,16 +5803,16 @@
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="62" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -6865,7 +5821,7 @@
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -6879,10 +5835,10 @@
       <c r="C8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="66" t="s">
         <v>119</v>
       </c>
       <c r="F8" s="32">
@@ -6899,7 +5855,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>55</v>
@@ -6910,13 +5866,13 @@
     </row>
     <row r="9" spans="1:17" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
-      <c r="B9" s="83">
+      <c r="B9" s="67">
         <v>2</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="68" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="32" t="s">
@@ -6936,7 +5892,7 @@
         <v>57</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K9" s="61" t="s">
         <v>68</v>
@@ -6952,13 +5908,13 @@
     </row>
     <row r="10" spans="1:17" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
-      <c r="B10" s="83">
+      <c r="B10" s="67">
         <v>3</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="65" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="58" t="s">
@@ -6978,7 +5934,7 @@
         <v>57</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>68</v>
@@ -6997,14 +5953,14 @@
       <c r="B11" s="30">
         <v>4</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="E11" s="31" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>127</v>
       </c>
       <c r="F11" s="36">
         <v>42024</v>
@@ -7020,7 +5976,7 @@
         <v>57</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K11" s="61" t="s">
         <v>68</v>
@@ -7036,17 +5992,17 @@
     </row>
     <row r="12" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
-      <c r="B12" s="85">
+      <c r="B12" s="69">
         <v>5</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>126</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="36">
         <v>42024</v>
@@ -7061,10 +6017,10 @@
       <c r="I12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="K12" s="89" t="s">
+      <c r="J12" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="73" t="s">
         <v>55</v>
       </c>
       <c r="L12" s="36">
@@ -7076,129 +6032,105 @@
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
     </row>
-    <row r="13" spans="1:17" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
-      <c r="B13" s="87">
-        <v>6</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="36">
-        <v>42024</v>
-      </c>
-      <c r="G13" s="57">
-        <v>5</v>
+    <row r="13" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="73">
+        <v>7</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="75">
+        <v>42025</v>
+      </c>
+      <c r="G13" s="73">
+        <v>1</v>
       </c>
       <c r="H13" s="55" t="str">
         <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v xml:space="preserve">High Impact </v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="89">
-        <v>7</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="91">
+        <v>Low Impact</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="36">
+        <v>42027</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+    </row>
+    <row r="14" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="76">
+        <v>8</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="75">
         <v>42025</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="76">
         <v>1</v>
       </c>
-      <c r="H14" s="55" t="str">
+      <c r="H14" s="57" t="str">
         <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="89" t="s">
+      <c r="J14" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="76" t="s">
         <v>68</v>
       </c>
       <c r="L14" s="36">
         <v>42027</v>
       </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-    </row>
-    <row r="15" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="92">
-        <v>8</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="91">
-        <v>42025</v>
-      </c>
-      <c r="G15" s="92">
-        <v>1</v>
-      </c>
-      <c r="H15" s="57" t="str">
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51" t="str">
         <f>IFERROR(VLOOKUP(G15,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v>Low Impact</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="36">
-        <v>42027</v>
-      </c>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
+        <v/>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="46"/>
@@ -7216,54 +6148,38 @@
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="51" t="str">
         <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="51" t="str">
         <f>IFERROR(VLOOKUP(G18,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="51" t="str">
         <f>IFERROR(VLOOKUP(G19,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="51" t="str">
         <f>IFERROR(VLOOKUP(G20,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="51" t="str">
-        <f>IFERROR(VLOOKUP(G21,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="49"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="49"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7275,10 +6191,9 @@
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1"/>
     <hyperlink ref="D14" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7287,49 +6202,49 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="112"/>
-    <col min="2" max="2" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="112" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="112" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="112" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="112" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="112" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="112" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="112" customWidth="1"/>
-    <col min="10" max="10" width="31" style="112" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="112" customWidth="1"/>
-    <col min="12" max="12" width="14" style="112" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="112" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="112"/>
+    <col min="1" max="1" width="9.140625" style="95"/>
+    <col min="2" max="2" width="4.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="95" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" customWidth="1"/>
+    <col min="10" max="10" width="31" style="95" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="95" customWidth="1"/>
+    <col min="12" max="12" width="14" style="95" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="95" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
+      <c r="B2" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -7338,33 +6253,33 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="93" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7373,16 +6288,16 @@
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="93" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="93" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -7391,25 +6306,25 @@
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="93" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>1</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="102" t="s">
+      <c r="C8" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>166</v>
+      <c r="E8" s="66" t="s">
+        <v>144</v>
       </c>
       <c r="F8" s="32">
         <v>42042</v>
@@ -7425,7 +6340,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>68</v>
@@ -7434,19 +6349,19 @@
         <v>42043</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
       <c r="B9" s="30">
         <v>2</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>168</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F9" s="32">
         <v>42042</v>
@@ -7458,11 +6373,11 @@
         <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v xml:space="preserve">High Impact </v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="94" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="K9" s="61" t="s">
         <v>68</v>
@@ -7470,25 +6385,25 @@
       <c r="L9" s="36">
         <v>42043</v>
       </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-    </row>
-    <row r="10" spans="1:17" s="79" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+    </row>
+    <row r="10" spans="1:17" s="63" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="83"/>
       <c r="B10" s="30">
         <v>3</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>171</v>
+        <v>148</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F10" s="32">
         <v>42042</v>
@@ -7504,7 +6419,7 @@
         <v>57</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>68</v>
@@ -7512,25 +6427,25 @@
       <c r="L10" s="36">
         <v>42043</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-    </row>
-    <row r="11" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+    </row>
+    <row r="11" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="83"/>
       <c r="B11" s="30">
         <v>5</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>168</v>
+      <c r="C11" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>146</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F11" s="32">
         <v>42042</v>
@@ -7545,34 +6460,34 @@
       <c r="I11" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="K11" s="89" t="s">
+      <c r="J11" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="73" t="s">
         <v>55</v>
       </c>
       <c r="L11" s="36">
         <v>42043</v>
       </c>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-    </row>
-    <row r="12" spans="1:17" s="79" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+    </row>
+    <row r="12" spans="1:17" s="63" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
       <c r="B12" s="30">
         <v>6</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>174</v>
+      <c r="C12" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F12" s="32">
         <v>42042</v>
@@ -7587,8 +6502,8 @@
       <c r="I12" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="98" t="s">
-        <v>187</v>
+      <c r="J12" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="K12" s="59" t="s">
         <v>55</v>
@@ -7596,108 +6511,108 @@
       <c r="L12" s="56">
         <v>42043</v>
       </c>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" s="79" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" spans="1:17" s="63" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
       <c r="B13" s="30">
         <v>7</v>
       </c>
-      <c r="C13" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>178</v>
+      <c r="C13" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>156</v>
       </c>
       <c r="F13" s="32">
         <v>42042</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="73">
         <v>5</v>
       </c>
       <c r="H13" s="30" t="str">
         <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v xml:space="preserve">High Impact </v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" s="89" t="s">
+      <c r="J13" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="73" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="36">
         <v>42043</v>
       </c>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
     </row>
     <row r="14" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="104">
+      <c r="B14" s="87">
         <v>11</v>
       </c>
-      <c r="C14" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>180</v>
+      <c r="C14" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>158</v>
       </c>
       <c r="F14" s="32">
         <v>42042</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="76">
         <v>5</v>
       </c>
       <c r="H14" s="30" t="str">
         <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v xml:space="preserve">High Impact </v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="107" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="105" t="s">
+      <c r="J14" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="88" t="s">
         <v>68</v>
       </c>
       <c r="L14" s="36">
         <v>42043</v>
       </c>
-      <c r="M14" s="113"/>
+      <c r="M14" s="96"/>
     </row>
     <row r="15" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104">
+      <c r="B15" s="87">
         <v>12</v>
       </c>
-      <c r="C15" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="108" t="s">
-        <v>191</v>
+      <c r="C15" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>169</v>
       </c>
       <c r="F15" s="32">
         <v>42042</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="76">
         <v>1</v>
       </c>
       <c r="H15" s="30" t="str">
@@ -7707,10 +6622,10 @@
       <c r="I15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="105" t="s">
+      <c r="J15" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="88" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="36">
@@ -7718,13 +6633,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H16" s="114"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="114"/>
+      <c r="H17" s="97"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="114"/>
+      <c r="H18" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7748,10 +6663,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7774,59 +6689,61 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="159"/>
+      <c r="B2" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="44">
-        <f>SUM(G8:G116)</f>
-        <v>26</v>
+        <f>SUM(G8:G113)</f>
+        <v>8</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="154"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
+      <c r="G4" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="157" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
+      <c r="B6" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7835,16 +6752,16 @@
       <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="98" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="98" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -7853,299 +6770,220 @@
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="98" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30">
+    <row r="8" spans="1:17" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46"/>
+      <c r="B8" s="67">
         <v>1</v>
       </c>
-      <c r="C8" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="116">
+      <c r="C8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="99">
         <v>42050</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="100">
         <v>5</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
-    </row>
-    <row r="9" spans="1:17" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="106"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
-      <c r="B9" s="83">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="143" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="116">
+      <c r="C9" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="99">
         <v>42050</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="101">
         <v>1</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="121"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
     </row>
-    <row r="10" spans="1:17" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
-      <c r="B10" s="83">
+      <c r="B10" s="69">
         <v>3</v>
       </c>
-      <c r="C10" s="119" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="116">
+      <c r="C10" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="99">
         <v>42050</v>
       </c>
-      <c r="G10" s="118">
-        <v>5</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
+      <c r="G10" s="101">
+        <v>1</v>
+      </c>
+      <c r="H10" s="102"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="46"/>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
     </row>
-    <row r="11" spans="1:17" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="30">
+    <row r="11" spans="1:17" s="63" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="73">
         <v>4</v>
       </c>
-      <c r="C11" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="116">
+      <c r="C11" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="99">
         <v>42050</v>
       </c>
-      <c r="G11" s="119">
-        <v>5</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-    </row>
-    <row r="12" spans="1:17" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="85">
-        <v>5</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="116">
-        <v>42050</v>
-      </c>
-      <c r="G12" s="119">
-        <v>5</v>
-      </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-    </row>
-    <row r="13" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
-      <c r="B13" s="87">
-        <v>6</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="116">
-        <v>42050</v>
-      </c>
-      <c r="G13" s="133">
-        <v>5</v>
-      </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="89">
-        <v>7</v>
-      </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-    </row>
-    <row r="15" spans="1:17" s="79" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="92">
-        <v>8</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
+      <c r="G11" s="110">
+        <v>1</v>
+      </c>
+      <c r="H11" s="113"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G15,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
       <c r="H16" s="51" t="str">
         <f>IFERROR(VLOOKUP(G16,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="51" t="str">
         <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="51" t="str">
         <f>IFERROR(VLOOKUP(G18,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="51" t="str">
-        <f>IFERROR(VLOOKUP(G19,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="51" t="str">
-        <f>IFERROR(VLOOKUP(G20,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="51" t="str">
-        <f>IFERROR(VLOOKUP(G21,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H23" s="49"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H24" s="49"/>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8155,8 +6993,10 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="http://hsemr-wpinapp.rhcloud.com/hsemr/createScenario.jsphttp://hsemr-wpinapp.rhcloud.com/hsemr/editScenario.jsp"/>
-    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="186">
   <si>
     <t>S/N</t>
   </si>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>No submissions were exported</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Fixed the topbar</t>
+  </si>
+  <si>
+    <t>Removed center attribute</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1184,9 +1193,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,18 +1202,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,9 +1214,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1227,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1286,9 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1396,7 +1390,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1504,7 +1497,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1731,8 +1723,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="970820896"/>
-        <c:axId val="970824704"/>
+        <c:axId val="849436208"/>
+        <c:axId val="849444368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1815,7 +1807,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1882,11 +1873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="970820896"/>
-        <c:axId val="970824704"/>
+        <c:axId val="849436208"/>
+        <c:axId val="849444368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="970820896"/>
+        <c:axId val="849436208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1965,7 +1955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970824704"/>
+        <c:crossAx val="849444368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1973,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970824704"/>
+        <c:axId val="849444368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970820896"/>
+        <c:crossAx val="849436208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2024,7 +2014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2283,8 +2272,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1112274032"/>
-        <c:axId val="1112283280"/>
+        <c:axId val="849445456"/>
+        <c:axId val="849446544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2367,7 +2356,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2434,11 +2422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1112274032"/>
-        <c:axId val="1112283280"/>
+        <c:axId val="849445456"/>
+        <c:axId val="849446544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1112274032"/>
+        <c:axId val="849445456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2458,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2517,7 +2504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1112283280"/>
+        <c:crossAx val="849446544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2525,7 +2512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1112283280"/>
+        <c:axId val="849446544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1112274032"/>
+        <c:crossAx val="849445456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,7 +2563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3025,28 +3011,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3055,30 +3041,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -3793,7 +3779,7 @@
       <c r="C11" s="78">
         <v>3</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="113">
         <v>1</v>
       </c>
       <c r="E11" s="78"/>
@@ -3836,28 +3822,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -3866,30 +3852,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4186,28 +4172,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4216,30 +4202,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -4537,28 +4523,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -4567,30 +4553,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -4882,28 +4868,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -4912,30 +4898,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -5328,26 +5314,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -5356,30 +5342,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -5740,26 +5726,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G115)</f>
         <v>15</v>
@@ -5768,30 +5754,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="62" t="s">
@@ -6202,7 +6188,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6225,26 +6211,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -6253,30 +6239,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
@@ -6665,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6689,26 +6675,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>8</v>
@@ -6717,30 +6703,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="98" t="s">
@@ -6782,13 +6768,13 @@
       <c r="B8" s="67">
         <v>1</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="104" t="s">
         <v>182</v>
       </c>
       <c r="F8" s="99">
@@ -6797,11 +6783,14 @@
       <c r="G8" s="100">
         <v>5</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="H8" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v xml:space="preserve">High Impact </v>
+      </c>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
@@ -6813,10 +6802,10 @@
       <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="111" t="s">
         <v>175</v>
       </c>
       <c r="E9" s="101" t="s">
@@ -6828,11 +6817,22 @@
       <c r="G9" s="101">
         <v>1</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="H9" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="102">
+        <v>42055</v>
+      </c>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
@@ -6844,10 +6844,10 @@
       <c r="B10" s="69">
         <v>3</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="111" t="s">
         <v>177</v>
       </c>
       <c r="E10" s="101" t="s">
@@ -6859,11 +6859,22 @@
       <c r="G10" s="101">
         <v>1</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="103"/>
+      <c r="H10" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="102">
+        <v>42055</v>
+      </c>
       <c r="M10" s="46"/>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
@@ -6875,26 +6886,37 @@
       <c r="B11" s="73">
         <v>4</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="106" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="99">
         <v>42050</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="106">
         <v>1</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="103"/>
+      <c r="H11" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="102">
+        <v>42055</v>
+      </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
@@ -6904,16 +6926,16 @@
     <row r="12" spans="1:17" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="76"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>

--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="188">
   <si>
     <t>S/N</t>
   </si>
@@ -578,9 +578,6 @@
     <t>http://hsemr-wpinapp.rhcloud.com/hsemr/viewScenarioLecturer.jsp</t>
   </si>
   <si>
-    <t>No submissions were exported</t>
-  </si>
-  <si>
     <t>Jocelyn</t>
   </si>
   <si>
@@ -588,6 +585,15 @@
   </si>
   <si>
     <t>Removed center attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Case &amp; Edit Case </t>
+  </si>
+  <si>
+    <t>User must select discontinue state. However, the medicine might not need to be discontinued</t>
+  </si>
+  <si>
+    <t>Added "none" as a selection for users to choose if there are no discontinue state for te medicine</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1187,9 +1193,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,9 +1202,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,9 +1221,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1283,6 +1280,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1620,7 +1623,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-SG"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1723,8 +1726,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="849436208"/>
-        <c:axId val="849444368"/>
+        <c:axId val="254306672"/>
+        <c:axId val="254307064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1873,11 +1876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="849436208"/>
-        <c:axId val="849444368"/>
+        <c:axId val="254306672"/>
+        <c:axId val="254307064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="849436208"/>
+        <c:axId val="254306672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849444368"/>
+        <c:crossAx val="254307064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="849444368"/>
+        <c:axId val="254307064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849436208"/>
+        <c:crossAx val="254306672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,7 +2172,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-SG"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2272,8 +2275,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="849445456"/>
-        <c:axId val="849446544"/>
+        <c:axId val="364530712"/>
+        <c:axId val="364531104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2422,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="849445456"/>
-        <c:axId val="849446544"/>
+        <c:axId val="364530712"/>
+        <c:axId val="364531104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="849445456"/>
+        <c:axId val="364530712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849446544"/>
+        <c:crossAx val="364531104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2512,7 +2515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="849446544"/>
+        <c:axId val="364531104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849445456"/>
+        <c:crossAx val="364530712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3011,28 +3014,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3041,30 +3044,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -3779,7 +3782,7 @@
       <c r="C11" s="78">
         <v>3</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="110">
         <v>1</v>
       </c>
       <c r="E11" s="78"/>
@@ -3822,28 +3825,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -3852,30 +3855,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4172,28 +4175,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4202,30 +4205,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -4523,28 +4526,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -4553,30 +4556,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -4868,28 +4871,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -4898,30 +4901,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -5314,26 +5317,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -5342,30 +5345,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -5726,26 +5729,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="44">
         <f>SUM(G8:G115)</f>
         <v>15</v>
@@ -5754,30 +5757,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="62" t="s">
@@ -6211,26 +6214,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -6239,30 +6242,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
@@ -6651,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6675,26 +6678,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>8</v>
@@ -6703,30 +6706,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="98" t="s">
@@ -6763,19 +6766,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="67">
         <v>1</v>
       </c>
-      <c r="C8" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>182</v>
+      <c r="C8" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="99">
         <v>42050</v>
@@ -6787,10 +6790,18 @@
         <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v xml:space="preserve">High Impact </v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="I8" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="131" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="101">
+        <v>42055</v>
+      </c>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
@@ -6802,35 +6813,35 @@
       <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>174</v>
       </c>
       <c r="F9" s="99">
         <v>42050</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="100">
         <v>1</v>
       </c>
       <c r="H9" s="30" t="str">
         <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="102">
+      <c r="J9" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="101">
         <v>42055</v>
       </c>
       <c r="M9" s="46"/>
@@ -6844,35 +6855,35 @@
       <c r="B10" s="69">
         <v>3</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>176</v>
       </c>
       <c r="F10" s="99">
         <v>42050</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="100">
         <v>1</v>
       </c>
       <c r="H10" s="30" t="str">
         <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="106" t="s">
+      <c r="J10" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="L10" s="102">
+      <c r="K10" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="101">
         <v>42055</v>
       </c>
       <c r="M10" s="46"/>
@@ -6886,35 +6897,35 @@
       <c r="B11" s="73">
         <v>4</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="104" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="99">
         <v>42050</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="104">
         <v>1</v>
       </c>
       <c r="H11" s="30" t="str">
         <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="106" t="s">
+      <c r="J11" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="102">
+      <c r="K11" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="101">
         <v>42055</v>
       </c>
       <c r="M11" s="64"/>
@@ -6926,16 +6937,16 @@
     <row r="12" spans="1:17" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="76"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="102"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
@@ -7018,7 +7029,6 @@
     <hyperlink ref="D9" r:id="rId1"/>
     <hyperlink ref="D10" r:id="rId2"/>
     <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="3" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="Iteration 7" sheetId="10" r:id="rId7"/>
     <sheet name="Iteration 8" sheetId="13" r:id="rId8"/>
     <sheet name="Iteration 9" sheetId="14" r:id="rId9"/>
-    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId10"/>
-    <sheet name="Overview" sheetId="12" r:id="rId11"/>
+    <sheet name="Iteration 10" sheetId="15" r:id="rId10"/>
+    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId11"/>
+    <sheet name="Overview" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="200">
   <si>
     <t>S/N</t>
   </si>
@@ -594,13 +595,49 @@
   </si>
   <si>
     <t>Added "none" as a selection for users to choose if there are no discontinue state for te medicine</t>
+  </si>
+  <si>
+    <t>https://hsemr-wpinapp.rhcloud.com/hsemr/editScenario.jsp</t>
+  </si>
+  <si>
+    <t>case name, desciption and admission information- when one has error, it shows that all 3 has error</t>
+  </si>
+  <si>
+    <t>Edit Scenario</t>
+  </si>
+  <si>
+    <t>inconsistent layout when there is no medicine created during edit ( reveal modal) and when medicine is already created during the create case stage.</t>
+  </si>
+  <si>
+    <t>https://hsemr-wpinapp.rhcloud.com/hsemr/createMedicationBC.jsp</t>
+  </si>
+  <si>
+    <t>Edit Medicine</t>
+  </si>
+  <si>
+    <t>mobile version</t>
+  </si>
+  <si>
+    <t>delete button not disabled in grey</t>
+  </si>
+  <si>
+    <t>View Lecturer scenario</t>
+  </si>
+  <si>
+    <t>modify the button so it fits if case more than 10</t>
+  </si>
+  <si>
+    <t>https://hsemr-wpinapp.rhcloud.com/hsemr/viewScenarioLecturer.jsp</t>
+  </si>
+  <si>
+    <t>See Healthcare Provider's Order does not expand that cell. it expands the cell on the left.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +741,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -731,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -906,13 +949,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,6 +1337,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,11 +1400,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1726,8 +1860,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254306672"/>
-        <c:axId val="254307064"/>
+        <c:axId val="150354816"/>
+        <c:axId val="150355208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1876,11 +2010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254306672"/>
-        <c:axId val="254307064"/>
+        <c:axId val="150354816"/>
+        <c:axId val="150355208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254306672"/>
+        <c:axId val="150354816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254307064"/>
+        <c:crossAx val="150355208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,7 +2100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254307064"/>
+        <c:axId val="150355208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254306672"/>
+        <c:crossAx val="150354816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,8 +2409,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="364530712"/>
-        <c:axId val="364531104"/>
+        <c:axId val="220000064"/>
+        <c:axId val="220000456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2425,11 +2559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364530712"/>
-        <c:axId val="364531104"/>
+        <c:axId val="220000064"/>
+        <c:axId val="220000456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364530712"/>
+        <c:axId val="220000064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364531104"/>
+        <c:crossAx val="220000456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364531104"/>
+        <c:axId val="220000456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364530712"/>
+        <c:crossAx val="220000064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3014,28 +3148,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3044,30 +3178,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -3476,6 +3610,373 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="95"/>
+    <col min="2" max="2" width="4.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="95" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" customWidth="1"/>
+    <col min="10" max="10" width="31" style="95" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="95" customWidth="1"/>
+    <col min="12" max="12" width="14" style="95" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="95" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="44">
+        <f>SUM(G8:G113)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="133"/>
+      <c r="B8" s="67">
+        <v>1</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="99">
+        <v>42071</v>
+      </c>
+      <c r="G8" s="100">
+        <v>5</v>
+      </c>
+      <c r="H8" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v xml:space="preserve">High Impact </v>
+      </c>
+      <c r="I8" s="100"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+    </row>
+    <row r="9" spans="1:17" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="133"/>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="99">
+        <v>42071</v>
+      </c>
+      <c r="G9" s="100">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I9" s="100"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+    </row>
+    <row r="10" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="133"/>
+      <c r="B10" s="69">
+        <v>3</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="99">
+        <v>42071</v>
+      </c>
+      <c r="G10" s="100">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+    </row>
+    <row r="11" spans="1:17" s="63" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="73">
+        <v>4</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="99">
+        <v>42071</v>
+      </c>
+      <c r="G11" s="100">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" s="63" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="69">
+        <v>5</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="99">
+        <v>42071</v>
+      </c>
+      <c r="G12" s="108">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30" t="str">
+        <f>IFERROR(VLOOKUP(G12,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G15,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G16,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G18,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="97"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B6:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3623,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
@@ -3825,28 +4326,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -3855,30 +4356,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4175,28 +4676,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4205,30 +4706,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -4526,28 +5027,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -4556,30 +5057,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -4871,28 +5372,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -4901,30 +5402,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -5317,26 +5818,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -5345,30 +5846,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -5729,26 +6230,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G115)</f>
         <v>15</v>
@@ -5757,30 +6258,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="62" t="s">
@@ -6214,26 +6715,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -6242,30 +6743,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
@@ -6654,8 +7155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6678,26 +7179,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>8</v>
@@ -6706,30 +7207,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="98" t="s">
@@ -6774,7 +7275,7 @@
       <c r="C8" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="113" t="s">
         <v>130</v>
       </c>
       <c r="E8" s="100" t="s">
@@ -6793,7 +7294,7 @@
       <c r="I8" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="131" t="s">
+      <c r="J8" s="114" t="s">
         <v>187</v>
       </c>
       <c r="K8" s="101" t="s">

--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="206">
   <si>
     <t>S/N</t>
   </si>
@@ -631,6 +631,24 @@
   </si>
   <si>
     <t>See Healthcare Provider's Order does not expand that cell. it expands the cell on the left.</t>
+  </si>
+  <si>
+    <t>Iteration 10 ( 23 February 2015- 08 March 2015)</t>
+  </si>
+  <si>
+    <t>Separate case name, description, admission information into separate &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Fixed the UI bug by making the layout consistent</t>
+  </si>
+  <si>
+    <t>Displayed a message to allow users to know that user cannot delete when a case is activated</t>
+  </si>
+  <si>
+    <t>Adjust the width for the buttons</t>
+  </si>
+  <si>
+    <t>Change the div class so that the button expands the information</t>
   </si>
 </sst>
 </file>
@@ -1346,6 +1364,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,27 +1437,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1527,6 +1545,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1547,10 +1566,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$C$3:$C$11</c:f>
+              <c:f>Overview!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1565,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,6 +1656,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1654,10 +1677,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$3:$D$11</c:f>
+              <c:f>Overview!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1683,6 +1706,9 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1757,7 +1783,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SG"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1860,8 +1886,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150354816"/>
-        <c:axId val="150355208"/>
+        <c:axId val="-1355913136"/>
+        <c:axId val="-1355914224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1944,6 +1970,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1964,10 +1991,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$11</c:f>
+              <c:f>Overview!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1995,6 +2022,9 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2010,11 +2040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150354816"/>
-        <c:axId val="150355208"/>
+        <c:axId val="-1355913136"/>
+        <c:axId val="-1355914224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150354816"/>
+        <c:axId val="-1355913136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,6 +2076,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2092,7 +2123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150355208"/>
+        <c:crossAx val="-1355914224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2100,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150355208"/>
+        <c:axId val="-1355914224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150354816"/>
+        <c:crossAx val="-1355913136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2151,6 +2182,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2265,6 +2297,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2306,7 +2339,7 @@
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-SG"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2328,6 +2361,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2372,6 +2406,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2392,10 +2427,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$E$3:$E$11</c:f>
+              <c:f>Overview!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2409,8 +2444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="220000064"/>
-        <c:axId val="220000456"/>
+        <c:axId val="-1489620176"/>
+        <c:axId val="-1211929104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2493,6 +2528,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2513,10 +2549,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$11</c:f>
+              <c:f>Overview!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2544,6 +2580,9 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2559,11 +2598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220000064"/>
-        <c:axId val="220000456"/>
+        <c:axId val="-1489620176"/>
+        <c:axId val="-1211929104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220000064"/>
+        <c:axId val="-1489620176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,6 +2634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2641,7 +2681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220000456"/>
+        <c:crossAx val="-1211929104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +2689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220000456"/>
+        <c:axId val="-1211929104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220000064"/>
+        <c:crossAx val="-1489620176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2700,6 +2740,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3148,28 +3189,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3178,30 +3219,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -3613,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3637,26 +3678,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="B2" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>9</v>
@@ -3665,30 +3706,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="112" t="s">
@@ -3725,18 +3766,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
+    <row r="8" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="115"/>
       <c r="B8" s="67">
         <v>1</v>
       </c>
       <c r="C8" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="120" t="s">
         <v>189</v>
       </c>
       <c r="F8" s="99">
@@ -3749,28 +3790,36 @@
         <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v xml:space="preserve">High Impact </v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
+      <c r="I8" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="101">
+        <v>42071</v>
+      </c>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
     </row>
     <row r="9" spans="1:17" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="121" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="99">
@@ -3783,28 +3832,36 @@
         <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-    </row>
-    <row r="10" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
+      <c r="I9" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="101">
+        <v>42071</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+    </row>
+    <row r="10" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="115"/>
       <c r="B10" s="69">
         <v>3</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="121" t="s">
         <v>195</v>
       </c>
       <c r="F10" s="99">
@@ -3817,28 +3874,36 @@
         <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
+      <c r="I10" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="101">
+        <v>42071</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="63" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
       <c r="B11" s="73">
         <v>4</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="121" t="s">
         <v>197</v>
       </c>
       <c r="F11" s="99">
@@ -3851,10 +3916,18 @@
         <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="101"/>
+      <c r="I11" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="101">
+        <v>42071</v>
+      </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
@@ -3866,13 +3939,13 @@
       <c r="B12" s="69">
         <v>5</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="121" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="99">
@@ -3885,10 +3958,18 @@
         <f>IFERROR(VLOOKUP(G12,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v>Low Impact</v>
       </c>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="101"/>
+      <c r="I12" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="101">
+        <v>42071</v>
+      </c>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
@@ -3896,36 +3977,36 @@
       <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="51" t="str">
         <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="51" t="str">
         <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
         <v/>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H15" s="51" t="str">
@@ -4126,10 +4207,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,7 +4249,7 @@
       </c>
       <c r="E3" s="78"/>
       <c r="F3" s="78">
-        <f t="shared" ref="F3:F11" si="0">(C3*1)+(D3*5)+(E3*10)</f>
+        <f t="shared" ref="F3:F12" si="0">(C3*1)+(D3*5)+(E3*10)</f>
         <v>14</v>
       </c>
     </row>
@@ -4290,6 +4371,22 @@
       <c r="F11" s="78">
         <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="110">
+        <v>10</v>
+      </c>
+      <c r="C12" s="110">
+        <v>4</v>
+      </c>
+      <c r="D12" s="110">
+        <v>1</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="110">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4423,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -4356,30 +4453,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4676,28 +4773,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4706,30 +4803,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -5027,28 +5124,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -5057,30 +5154,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -5372,28 +5469,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -5402,30 +5499,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -5818,26 +5915,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -5846,30 +5943,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -6230,26 +6327,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="44">
         <f>SUM(G8:G115)</f>
         <v>15</v>
@@ -6258,30 +6355,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="62" t="s">
@@ -6715,26 +6812,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -6743,30 +6840,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
@@ -7179,26 +7276,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>8</v>
@@ -7207,30 +7304,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="98" t="s">

--- a/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
+++ b/Documents/Project Management/Metrics/Bug Metrics/Bug Metrics v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="722" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="3" r:id="rId1"/>
@@ -17,15 +17,17 @@
     <sheet name="Iteration 8" sheetId="13" r:id="rId8"/>
     <sheet name="Iteration 9" sheetId="14" r:id="rId9"/>
     <sheet name="Iteration 10" sheetId="15" r:id="rId10"/>
-    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId11"/>
-    <sheet name="Overview" sheetId="12" r:id="rId12"/>
+    <sheet name="Iteration 11" sheetId="16" r:id="rId11"/>
+    <sheet name="Iteration 12" sheetId="17" r:id="rId12"/>
+    <sheet name="Guidelines for Bug Metrics" sheetId="2" r:id="rId13"/>
+    <sheet name="Overview" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="232">
   <si>
     <t>S/N</t>
   </si>
@@ -649,6 +651,84 @@
   </si>
   <si>
     <t>Change the div class so that the button expands the information</t>
+  </si>
+  <si>
+    <t>PDF Text Recog - Keywords</t>
+  </si>
+  <si>
+    <t>NPE for adding of keywords</t>
+  </si>
+  <si>
+    <t>FileNotFoundException, User Mapped File is opened</t>
+  </si>
+  <si>
+    <t>Check for NullPointerException</t>
+  </si>
+  <si>
+    <t>Catch fileNotFoundException and do not store files on the path, straight away delete it</t>
+  </si>
+  <si>
+    <t>Iteration 11 ( 09 March 2015 - 23 March 2015)</t>
+  </si>
+  <si>
+    <t>activateScenarioAdmin.jsp</t>
+  </si>
+  <si>
+    <t>activated case for lecturer box out of line</t>
+  </si>
+  <si>
+    <t>Activate Case</t>
+  </si>
+  <si>
+    <t>Deactivate Case</t>
+  </si>
+  <si>
+    <t>deactivateScenarioAdmin.jsp</t>
+  </si>
+  <si>
+    <t>"Current documents" heading not aligned</t>
+  </si>
+  <si>
+    <t>"Next" button is above the medication table</t>
+  </si>
+  <si>
+    <t>viewReportDocument.jsp</t>
+  </si>
+  <si>
+    <t>viewMedication.jsp</t>
+  </si>
+  <si>
+    <t>View Reports</t>
+  </si>
+  <si>
+    <t>View Medication</t>
+  </si>
+  <si>
+    <t>Submit multidisciplinary textbox</t>
+  </si>
+  <si>
+    <t>Textbox does not start from first position</t>
+  </si>
+  <si>
+    <t>ViewPatientInformation</t>
+  </si>
+  <si>
+    <t>medication tab, the step 3 red color fonts should be bigger</t>
+  </si>
+  <si>
+    <t>ViewPatientInformation.jsp</t>
+  </si>
+  <si>
+    <t>Iteration 12 (24 March 2015 - 6 April 2015)</t>
+  </si>
+  <si>
+    <t>delete button for document is in green but delete button for report is in red. need to standardize</t>
+  </si>
+  <si>
+    <t>Create case</t>
+  </si>
+  <si>
+    <t>createScenario.jsp</t>
   </si>
 </sst>
 </file>
@@ -792,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1034,13 +1114,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1384,6 +1477,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,10 +1669,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$C$3:$C$12</c:f>
+              <c:f>Overview!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -1586,6 +1689,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1677,10 +1786,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$3:$D$12</c:f>
+              <c:f>Overview!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1710,6 +1819,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,8 +1998,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1355913136"/>
-        <c:axId val="-1355914224"/>
+        <c:axId val="-993308720"/>
+        <c:axId val="-993300016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1991,10 +2103,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$12</c:f>
+              <c:f>Overview!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2025,6 +2137,12 @@
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2040,11 +2158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1355913136"/>
-        <c:axId val="-1355914224"/>
+        <c:axId val="-993308720"/>
+        <c:axId val="-993300016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1355913136"/>
+        <c:axId val="-993308720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355914224"/>
+        <c:crossAx val="-993300016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,7 +2249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1355914224"/>
+        <c:axId val="-993300016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355913136"/>
+        <c:crossAx val="-993308720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2297,7 +2415,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2361,7 +2478,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2406,7 +2522,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2427,10 +2542,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$E$3:$E$12</c:f>
+              <c:f>Overview!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2444,8 +2559,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1489620176"/>
-        <c:axId val="-1211929104"/>
+        <c:axId val="-993297840"/>
+        <c:axId val="-993306544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2549,10 +2664,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$F$3:$F$12</c:f>
+              <c:f>Overview!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2583,6 +2698,12 @@
                 <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2598,11 +2719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1489620176"/>
-        <c:axId val="-1211929104"/>
+        <c:axId val="-993297840"/>
+        <c:axId val="-993306544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1489620176"/>
+        <c:axId val="-993297840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1211929104"/>
+        <c:crossAx val="-993306544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1211929104"/>
+        <c:axId val="-993306544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1489620176"/>
+        <c:crossAx val="-993297840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3165,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3189,28 +3310,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="126"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="15">
         <f>SUM(G8:G17)</f>
         <v>14</v>
@@ -3219,30 +3340,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
@@ -3655,7 +3776,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3678,26 +3799,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>9</v>
@@ -3706,30 +3827,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="112" t="s">
@@ -4058,6 +4179,708 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="95"/>
+    <col min="2" max="2" width="4.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="95" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" customWidth="1"/>
+    <col min="10" max="10" width="31" style="95" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="95" customWidth="1"/>
+    <col min="12" max="12" width="14" style="95" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="95" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="44">
+        <v>13</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="115"/>
+      <c r="B8" s="104">
+        <v>1</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="107">
+        <v>42070</v>
+      </c>
+      <c r="G8" s="104">
+        <v>5</v>
+      </c>
+      <c r="H8" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v xml:space="preserve">High Impact </v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="101">
+        <v>42146</v>
+      </c>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+    </row>
+    <row r="9" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
+      <c r="B9" s="104">
+        <v>2</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="107">
+        <v>42070</v>
+      </c>
+      <c r="G9" s="104">
+        <v>5</v>
+      </c>
+      <c r="H9" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v xml:space="preserve">High Impact </v>
+      </c>
+      <c r="I9" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="101">
+        <v>42146</v>
+      </c>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+    </row>
+    <row r="10" spans="1:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="115"/>
+      <c r="B10" s="100">
+        <v>3</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="107">
+        <v>42070</v>
+      </c>
+      <c r="G10" s="100">
+        <v>1</v>
+      </c>
+      <c r="H10" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="107">
+        <v>42073</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+    </row>
+    <row r="11" spans="1:17" s="63" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="100">
+        <v>4</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="107">
+        <v>42070</v>
+      </c>
+      <c r="G11" s="100">
+        <v>1</v>
+      </c>
+      <c r="H11" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I11" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="107">
+        <v>42073</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" s="63" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="100">
+        <v>5</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="107">
+        <v>42070</v>
+      </c>
+      <c r="G12" s="100">
+        <v>1</v>
+      </c>
+      <c r="H12" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G12,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="107">
+        <v>42073</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G13,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G14,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G15,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G16,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="97"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="95"/>
+    <col min="2" max="2" width="4.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="95" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="95" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="95" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="95" customWidth="1"/>
+    <col min="11" max="11" width="14" style="95" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="95" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="44">
+        <v>4</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
+      <c r="B8" s="104">
+        <v>1</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="107">
+        <v>42096</v>
+      </c>
+      <c r="G8" s="104">
+        <v>5</v>
+      </c>
+      <c r="H8" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G8,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v xml:space="preserve">High Impact </v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="101">
+        <v>42099</v>
+      </c>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+    </row>
+    <row r="9" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
+      <c r="B9" s="104">
+        <v>2</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="107">
+        <v>42096</v>
+      </c>
+      <c r="G9" s="104">
+        <v>1</v>
+      </c>
+      <c r="H9" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G9,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I9" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="101">
+        <v>42099</v>
+      </c>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+    </row>
+    <row r="10" spans="1:16" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115"/>
+      <c r="B10" s="100">
+        <v>3</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="107">
+        <v>42096</v>
+      </c>
+      <c r="G10" s="100">
+        <v>1</v>
+      </c>
+      <c r="H10" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G10,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="101">
+        <v>42099</v>
+      </c>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+    </row>
+    <row r="11" spans="1:16" s="63" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="100">
+        <v>4</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="107">
+        <v>42096</v>
+      </c>
+      <c r="G11" s="100">
+        <v>1</v>
+      </c>
+      <c r="H11" s="100" t="str">
+        <f>IFERROR(VLOOKUP(G11,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v>Low Impact</v>
+      </c>
+      <c r="I11" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="101">
+        <v>42099</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G16,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G17,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="51" t="str">
+        <f>IFERROR(VLOOKUP(G18,'Guidelines for Bug Metrics'!$B$3:$C$5,2), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="97"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4205,12 +5028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,6 +5211,43 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="110">
+        <v>11</v>
+      </c>
+      <c r="C13" s="78">
+        <v>3</v>
+      </c>
+      <c r="D13" s="110">
+        <v>2</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="110">
+        <v>12</v>
+      </c>
+      <c r="C14" s="78">
+        <v>4</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="110">
+        <v>13</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4423,28 +5283,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="126"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="15">
         <f>SUM(G8:G10)</f>
         <v>11</v>
@@ -4453,30 +5313,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -4773,28 +5633,28 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="126"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>15</v>
@@ -4803,30 +5663,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
@@ -5124,28 +5984,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="22">
         <f>SUM(G8:G10)</f>
         <v>5</v>
@@ -5154,30 +6014,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
@@ -5469,28 +6329,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="22">
         <f>SUM(G8:G116)</f>
         <v>30</v>
@@ -5499,30 +6359,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -5891,7 +6751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5915,26 +6775,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="44">
         <f>SUM(G8:G116)</f>
         <v>20</v>
@@ -5943,30 +6803,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="34" t="s">
@@ -6327,26 +7187,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="44">
         <f>SUM(G8:G115)</f>
         <v>15</v>
@@ -6355,30 +7215,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="62" t="s">
@@ -6812,26 +7672,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="44">
         <f>SUM(G8:G110)</f>
         <v>32</v>
@@ -6840,30 +7700,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
@@ -7276,26 +8136,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="143"/>
       <c r="D4" s="44">
         <f>SUM(G8:G113)</f>
         <v>8</v>
@@ -7304,30 +8164,30 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="98" t="s">
